--- a/biology/Botanique/Nyssaceae/Nyssaceae.xlsx
+++ b/biology/Botanique/Nyssaceae/Nyssaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Nyssacées regroupe des plantes de l'ordre des Cornales, proche des Cornaceae. La famille comprend 22 espèces réparties en 5 genres :
 un arbre à feuilles caduques originaire de Chine qui formait la famille des Davidiaceae (nl) :
@@ -518,9 +530,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Nyssa, qui, selon Charles Linné, est un nom de nymphe[2]. « Il l'a appliqué par allusion à un arbre qui croît dans les lieux inondés de l'Amérique septentrionale »[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Nyssa, qui, selon Charles Linné, est un nom de nymphe. « Il l'a appliqué par allusion à un arbre qui croît dans les lieux inondés de l'Amérique septentrionale ». 
 </t>
         </is>
       </c>
@@ -549,12 +563,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[4] cette famille fait partie de l'ordre des Cornales.
-Pour la classification phylogénétique APG II (2003)[5], cette famille est optionnelle, pouvant être incorporée aux Cornaceae. 
-En classification phylogénétique APG III (2009)[6] cette famille est n’est pas différenciée et ses genres sont incorporés dans la famille Cornaceae.
-En classification phylogénétique APG IV (2016)[7] cette famille est de nouveau séparée des Cornaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981) cette famille fait partie de l'ordre des Cornales.
+Pour la classification phylogénétique APG II (2003), cette famille est optionnelle, pouvant être incorporée aux Cornaceae. 
+En classification phylogénétique APG III (2009) cette famille est n’est pas différenciée et ses genres sont incorporés dans la famille Cornaceae.
+En classification phylogénétique APG IV (2016) cette famille est de nouveau séparée des Cornaceae.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 mai 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 mai 2021) :
 Genres existants
 Camptotheca (en) Decne.
 Davidia (en) Baill.
